--- a/data/trans_orig/P36BPD01_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD01_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49917015-0F15-433E-94CA-1E90BCBCD0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D0F7435-B6DD-4DD4-9C78-EC08DC34F5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8A70479E-A40E-40ED-BC65-CBB374288789}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{801300FA-70C2-4004-AD8E-783F4603F6D9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>98,52%</t>
   </si>
   <si>
-    <t>95,19%</t>
+    <t>94,44%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,109 +83,109 @@
     <t>98,46%</t>
   </si>
   <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
   </si>
   <si>
     <t>98,48%</t>
   </si>
   <si>
-    <t>96,68%</t>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
   </si>
   <si>
     <t>99,42%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>2,69%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -194,217 +194,217 @@
     <t>94,0%</t>
   </si>
   <si>
-    <t>91,78%</t>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
   </si>
   <si>
     <t>95,83%</t>
   </si>
   <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
   </si>
   <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
+    <t>6,03%</t>
   </si>
   <si>
     <t>4,58%</t>
   </si>
   <si>
-    <t>5,28%</t>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
   </si>
   <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
+    <t>5,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBE0B80-E243-4822-AF16-65C20A8CC6F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AE3241-1372-4899-890C-44C66351A117}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1715,7 +1715,7 @@
         <v>3185</v>
       </c>
       <c r="D19" s="7">
-        <v>3199804</v>
+        <v>3199803</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>107</v>
@@ -1739,7 +1739,7 @@
         <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>8278</v>
@@ -1748,13 +1748,13 @@
         <v>6826291</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1787,10 +1787,10 @@
         <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>443</v>
@@ -1799,10 +1799,10 @@
         <v>342177</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>122</v>
@@ -1817,7 +1817,7 @@
         <v>3364</v>
       </c>
       <c r="D21" s="7">
-        <v>3368025</v>
+        <v>3368024</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P36BPD01_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD01_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D0F7435-B6DD-4DD4-9C78-EC08DC34F5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDD1D5BC-65AF-44D2-AB36-AFD91A2E9302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{801300FA-70C2-4004-AD8E-783F4603F6D9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E76881EC-B8B8-4F3B-95B8-AFE896171E93}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Población según si utilizan como principal grasa para cocinar el aceite de oliva en 2023 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -65,346 +65,289 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
   </si>
   <si>
     <t>94,66%</t>
   </si>
   <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
   </si>
   <si>
     <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,8 +762,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AE3241-1372-4899-890C-44C66351A117}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC53558F-DDAF-4E50-9AA0-8BEBA1BB8C5B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -937,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>116</v>
+        <v>717</v>
       </c>
       <c r="D4" s="7">
-        <v>100469</v>
+        <v>626659</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -952,10 +895,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>239</v>
+        <v>1207</v>
       </c>
       <c r="I4" s="7">
-        <v>128716</v>
+        <v>658936</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -967,10 +910,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>355</v>
+        <v>1924</v>
       </c>
       <c r="N4" s="7">
-        <v>229184</v>
+        <v>1285595</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -988,10 +931,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D5" s="7">
-        <v>1513</v>
+        <v>8782</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1003,10 +946,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="I5" s="7">
-        <v>2017</v>
+        <v>16434</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1018,10 +961,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="N5" s="7">
-        <v>3531</v>
+        <v>25216</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1039,10 +982,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1054,10 +997,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1238</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675370</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1069,10 +1012,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1968</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1310811</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1092,10 +1035,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>601</v>
+        <v>898</v>
       </c>
       <c r="D7" s="7">
-        <v>542235</v>
+        <v>1125749</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1107,10 +1050,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>968</v>
+        <v>1437</v>
       </c>
       <c r="I7" s="7">
-        <v>576990</v>
+        <v>909731</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1122,10 +1065,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>1569</v>
+        <v>2335</v>
       </c>
       <c r="N7" s="7">
-        <v>1119225</v>
+        <v>2035480</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1143,10 +1086,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D8" s="7">
-        <v>7588</v>
+        <v>61717</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1158,10 +1101,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="I8" s="7">
-        <v>15565</v>
+        <v>46394</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1173,10 +1116,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="N8" s="7">
-        <v>23153</v>
+        <v>108111</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1194,10 +1137,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>961</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1187466</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1209,10 +1152,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>995</v>
+        <v>1513</v>
       </c>
       <c r="I9" s="7">
-        <v>592555</v>
+        <v>956125</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1224,10 +1167,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1607</v>
+        <v>2474</v>
       </c>
       <c r="N9" s="7">
-        <v>1142378</v>
+        <v>2143591</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1247,10 +1190,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>898</v>
+        <v>608</v>
       </c>
       <c r="D10" s="7">
-        <v>972238</v>
+        <v>630731</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1262,10 +1205,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>1437</v>
+        <v>940</v>
       </c>
       <c r="I10" s="7">
-        <v>1007770</v>
+        <v>865996</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1277,10 +1220,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>2335</v>
+        <v>1548</v>
       </c>
       <c r="N10" s="7">
-        <v>1980008</v>
+        <v>1496726</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1298,10 +1241,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="7">
-        <v>62008</v>
+        <v>62946</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1313,10 +1256,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="I11" s="7">
-        <v>49620</v>
+        <v>64622</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1328,10 +1271,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="N11" s="7">
-        <v>111628</v>
+        <v>127568</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1349,10 +1292,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>961</v>
+        <v>669</v>
       </c>
       <c r="D12" s="7">
-        <v>1034246</v>
+        <v>693677</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1364,10 +1307,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1513</v>
+        <v>1046</v>
       </c>
       <c r="I12" s="7">
-        <v>1057390</v>
+        <v>930618</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1379,10 +1322,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2474</v>
+        <v>1715</v>
       </c>
       <c r="N12" s="7">
-        <v>2091636</v>
+        <v>1624294</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1402,10 +1345,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>608</v>
+        <v>962</v>
       </c>
       <c r="D13" s="7">
-        <v>654782</v>
+        <v>893307</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1417,10 +1360,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>940</v>
+        <v>1509</v>
       </c>
       <c r="I13" s="7">
-        <v>803438</v>
+        <v>1059089</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1432,10 +1375,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>1548</v>
+        <v>2471</v>
       </c>
       <c r="N13" s="7">
-        <v>1458221</v>
+        <v>1952396</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1453,10 +1396,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D14" s="7">
-        <v>63587</v>
+        <v>31816</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1468,10 +1411,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="I14" s="7">
-        <v>67852</v>
+        <v>34217</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1483,10 +1426,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="N14" s="7">
-        <v>131439</v>
+        <v>66033</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1504,10 +1447,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>669</v>
+        <v>1004</v>
       </c>
       <c r="D15" s="7">
-        <v>718369</v>
+        <v>925123</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1519,10 +1462,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1046</v>
+        <v>1560</v>
       </c>
       <c r="I15" s="7">
-        <v>871290</v>
+        <v>1093306</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1534,10 +1477,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1715</v>
+        <v>2564</v>
       </c>
       <c r="N15" s="7">
-        <v>1589660</v>
+        <v>2018429</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1551,55 +1494,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>962</v>
+        <v>3185</v>
       </c>
       <c r="D16" s="7">
-        <v>930079</v>
+        <v>3276446</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>5093</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3493752</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>1509</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1109575</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="7">
+        <v>8278</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6770198</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>2471</v>
-      </c>
-      <c r="N16" s="7">
-        <v>2039654</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,49 +1551,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="D17" s="7">
-        <v>33525</v>
+        <v>165261</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>264</v>
+      </c>
+      <c r="I17" s="7">
+        <v>161667</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>51</v>
-      </c>
-      <c r="I17" s="7">
-        <v>38901</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>443</v>
+      </c>
+      <c r="N17" s="7">
+        <v>326928</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>93</v>
-      </c>
-      <c r="N17" s="7">
-        <v>72426</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,10 +1602,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1004</v>
+        <v>3364</v>
       </c>
       <c r="D18" s="7">
-        <v>963604</v>
+        <v>3441707</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1674,10 +1617,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1560</v>
+        <v>5357</v>
       </c>
       <c r="I18" s="7">
-        <v>1148476</v>
+        <v>3655419</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1689,10 +1632,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2564</v>
+        <v>8721</v>
       </c>
       <c r="N18" s="7">
-        <v>2112080</v>
+        <v>7097126</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1705,171 +1648,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3185</v>
-      </c>
-      <c r="D19" s="7">
-        <v>3199803</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>5093</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3626488</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>8278</v>
-      </c>
-      <c r="N19" s="7">
-        <v>6826291</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>179</v>
-      </c>
-      <c r="D20" s="7">
-        <v>168221</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="7">
-        <v>264</v>
-      </c>
-      <c r="I20" s="7">
-        <v>173956</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M20" s="7">
-        <v>443</v>
-      </c>
-      <c r="N20" s="7">
-        <v>342177</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3364</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3368024</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5357</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3800444</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8721</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7168468</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
